--- a/Code/Results/Cases/Case_4_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_87/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8416869707074852</v>
+        <v>0.2768050460063307</v>
       </c>
       <c r="C2">
-        <v>0.1223898918295134</v>
+        <v>0.06031819443467157</v>
       </c>
       <c r="D2">
-        <v>0.1981609000352904</v>
+        <v>0.07874435808558644</v>
       </c>
       <c r="E2">
-        <v>0.3404736098834249</v>
+        <v>0.1686307853009623</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4079136084225325</v>
+        <v>0.5632483727616489</v>
       </c>
       <c r="H2">
-        <v>0.3285995564907722</v>
+        <v>0.6924185566122532</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8677024939945568</v>
+        <v>0.2606336659522697</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5866382902154541</v>
+        <v>0.2148598588092483</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.501242077482488</v>
+        <v>2.48644661295495</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.73326089362007</v>
+        <v>0.2438897404451836</v>
       </c>
       <c r="C3">
-        <v>0.1134918309935458</v>
+        <v>0.05720082609634858</v>
       </c>
       <c r="D3">
-        <v>0.1719405813479398</v>
+        <v>0.07140343440914876</v>
       </c>
       <c r="E3">
-        <v>0.2966635093767636</v>
+        <v>0.1576750876642521</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3899516247232384</v>
+        <v>0.5631517917375035</v>
       </c>
       <c r="H3">
-        <v>0.3266270625601706</v>
+        <v>0.6963446507366129</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7614105352913896</v>
+        <v>0.2272977185796634</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5076573875285462</v>
+        <v>0.1926867908534149</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.458630237578774</v>
+        <v>2.49417829921704</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6667698314969357</v>
+        <v>0.2236698707330902</v>
       </c>
       <c r="C4">
-        <v>0.1080219243913092</v>
+        <v>0.05527214612481401</v>
       </c>
       <c r="D4">
-        <v>0.1559818596421962</v>
+        <v>0.06692929383598312</v>
       </c>
       <c r="E4">
-        <v>0.2702920970632121</v>
+        <v>0.1510676827681579</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3799110650138502</v>
+        <v>0.5634908400214229</v>
       </c>
       <c r="H4">
-        <v>0.3260168167082469</v>
+        <v>0.6990740303626097</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6961446671763554</v>
+        <v>0.2067641700347025</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.459556538773441</v>
+        <v>0.1791362881069887</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.4358090036052</v>
+        <v>2.50042740946779</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6396847338697853</v>
+        <v>0.2154280791049814</v>
       </c>
       <c r="C5">
-        <v>0.1057906215732203</v>
+        <v>0.05448256808847418</v>
       </c>
       <c r="D5">
-        <v>0.1495096554996707</v>
+        <v>0.06511441704545007</v>
       </c>
       <c r="E5">
-        <v>0.2596642074771509</v>
+        <v>0.1484049154837024</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3760538365872819</v>
+        <v>0.5637290229708682</v>
       </c>
       <c r="H5">
-        <v>0.3259130090487403</v>
+        <v>0.7002664422876848</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.669538337331133</v>
+        <v>0.1983806189188044</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4400392008154626</v>
+        <v>0.1736303727481143</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.427306747142339</v>
+        <v>2.503351329372492</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6351876214036167</v>
+        <v>0.2140594256084682</v>
       </c>
       <c r="C6">
-        <v>0.1054199602671488</v>
+        <v>0.05435124168483441</v>
       </c>
       <c r="D6">
-        <v>0.1484367089078091</v>
+        <v>0.06481356434686347</v>
       </c>
       <c r="E6">
-        <v>0.2579062247036745</v>
+        <v>0.1479645583763229</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.375427104191246</v>
+        <v>0.5637746095106735</v>
       </c>
       <c r="H6">
-        <v>0.3259043460070004</v>
+        <v>0.7004692838213629</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6651195111418247</v>
+        <v>0.1969875848294578</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4368030260357187</v>
+        <v>0.1727170866715682</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.425941912223863</v>
+        <v>2.503859627017704</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6664045228739894</v>
+        <v>0.2235587267143728</v>
       </c>
       <c r="C7">
-        <v>0.107991842278139</v>
+        <v>0.05526151221494047</v>
       </c>
       <c r="D7">
-        <v>0.1558944527763373</v>
+        <v>0.06690478385058896</v>
       </c>
       <c r="E7">
-        <v>0.2701483031948655</v>
+        <v>0.1510316513858427</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3798581141906467</v>
+        <v>0.5634936474712902</v>
       </c>
       <c r="H7">
-        <v>0.3260148381243155</v>
+        <v>0.6990897870294006</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6957858972466227</v>
+        <v>0.2066511706122895</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4592929994298771</v>
+        <v>0.1790619685639214</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.435691164959593</v>
+        <v>2.500465314960337</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.804278001869676</v>
+        <v>0.2654581103816724</v>
       </c>
       <c r="C8">
-        <v>0.119322774629552</v>
+        <v>0.05924638379615033</v>
       </c>
       <c r="D8">
-        <v>0.1890882990660714</v>
+        <v>0.07620632291454399</v>
       </c>
       <c r="E8">
-        <v>0.3252494818835672</v>
+        <v>0.1648283296542132</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4015064997969091</v>
+        <v>0.5631323021978289</v>
       </c>
       <c r="H8">
-        <v>0.3277908810501344</v>
+        <v>0.6937061287907369</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8310476003377545</v>
+        <v>0.2491531912021401</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5593147136147394</v>
+        <v>0.2072013069083951</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.485829197156505</v>
+        <v>2.488800616244646</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.075815426939755</v>
+        <v>0.3475310849370032</v>
       </c>
       <c r="C9">
-        <v>0.1415241507401248</v>
+        <v>0.06694314097400422</v>
       </c>
       <c r="D9">
-        <v>0.2555035465175166</v>
+        <v>0.09471028873775822</v>
       </c>
       <c r="E9">
-        <v>0.4381801354623676</v>
+        <v>0.1928431101611139</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4524755923605142</v>
+        <v>0.5655920439862285</v>
       </c>
       <c r="H9">
-        <v>0.3363394783276021</v>
+        <v>0.6856774116838125</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.0967449980688</v>
+        <v>0.3319683319628552</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7593057131324201</v>
+        <v>0.2628934251986763</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.612730039811879</v>
+        <v>2.477857979900108</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.276802069778739</v>
+        <v>0.4077610223201873</v>
       </c>
       <c r="C10">
-        <v>0.1578751402878567</v>
+        <v>0.07252453541718751</v>
       </c>
       <c r="D10">
-        <v>0.3054127914187461</v>
+        <v>0.1084674912474952</v>
       </c>
       <c r="E10">
-        <v>0.5251579779270514</v>
+        <v>0.214029077322536</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4961183235467388</v>
+        <v>0.569342473338736</v>
       </c>
       <c r="H10">
-        <v>0.3461509442371522</v>
+        <v>0.6813200748703281</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.292941166193032</v>
+        <v>0.3924754491919771</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9096791556161392</v>
+        <v>0.3041321384505693</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.726443393703931</v>
+        <v>2.477117403796029</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.368746753278231</v>
+        <v>0.4351437615016494</v>
       </c>
       <c r="C11">
-        <v>0.1653347822179256</v>
+        <v>0.07504738402225541</v>
       </c>
       <c r="D11">
-        <v>0.3284331015496633</v>
+        <v>0.1147616677293541</v>
       </c>
       <c r="E11">
-        <v>0.565848625142948</v>
+        <v>0.2238022839011649</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5175585576312614</v>
+        <v>0.5714731970388414</v>
       </c>
       <c r="H11">
-        <v>0.3514873489644543</v>
+        <v>0.6796725134369836</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.382583671801711</v>
+        <v>0.4199260514892842</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9791003403412901</v>
+        <v>0.3229650030318254</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.78335442006312</v>
+        <v>2.478371022581854</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.403654402393443</v>
+        <v>0.4455102310436416</v>
       </c>
       <c r="C12">
-        <v>0.1681637611202547</v>
+        <v>0.07600035889831247</v>
       </c>
       <c r="D12">
-        <v>0.3372022769574556</v>
+        <v>0.1171502789751315</v>
       </c>
       <c r="E12">
-        <v>0.581441687126933</v>
+        <v>0.2275229270960679</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5259273260273005</v>
+        <v>0.5723412943671633</v>
       </c>
       <c r="H12">
-        <v>0.3536432669125276</v>
+        <v>0.6790967385162787</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.416600613908258</v>
+        <v>0.4303098469221993</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.005558299773419</v>
+        <v>0.3301071429053977</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.805716513553733</v>
+        <v>2.479074843028712</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.396132133162865</v>
+        <v>0.4432777572003772</v>
       </c>
       <c r="C13">
-        <v>0.1675542859394454</v>
+        <v>0.07579522504454417</v>
       </c>
       <c r="D13">
-        <v>0.3353112638171609</v>
+        <v>0.1166356205002899</v>
       </c>
       <c r="E13">
-        <v>0.5780748569435659</v>
+        <v>0.2267207381240581</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5241134891501815</v>
+        <v>0.5721516076737743</v>
       </c>
       <c r="H13">
-        <v>0.3531727805189462</v>
+        <v>0.6792186016949984</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.409271036404533</v>
+        <v>0.4280740139880947</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9998521611359763</v>
+        <v>0.3285684860584936</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.80086325712702</v>
+        <v>2.478913067144191</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.371616721850927</v>
+        <v>0.4359966754980462</v>
       </c>
       <c r="C14">
-        <v>0.1655674337993673</v>
+        <v>0.07512583368516346</v>
       </c>
       <c r="D14">
-        <v>0.3291534687897126</v>
+        <v>0.114958077294375</v>
       </c>
       <c r="E14">
-        <v>0.5671276425459055</v>
+        <v>0.224107986409102</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5182419247452827</v>
+        <v>0.5715433876092106</v>
       </c>
       <c r="H14">
-        <v>0.351661951719592</v>
+        <v>0.6796241796515119</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.385380747943856</v>
+        <v>0.4207805586873405</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9812735097598946</v>
+        <v>0.3235523797612103</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.785177511009067</v>
+        <v>2.478424332542914</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.356612571733933</v>
+        <v>0.4315364272563329</v>
       </c>
       <c r="C15">
-        <v>0.164351006940592</v>
+        <v>0.0747155016209291</v>
       </c>
       <c r="D15">
-        <v>0.3253885959461655</v>
+        <v>0.1139312026224815</v>
       </c>
       <c r="E15">
-        <v>0.5604468815729859</v>
+        <v>0.2225101787231409</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5146786256435405</v>
+        <v>0.5711788155439734</v>
       </c>
       <c r="H15">
-        <v>0.3507544214778022</v>
+        <v>0.679878874733248</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.370757001448226</v>
+        <v>0.4163116409533529</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9699163800329131</v>
+        <v>0.3204812434373139</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.775677214297332</v>
+        <v>2.478154815870397</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.270804981036065</v>
+        <v>0.4059711317275685</v>
       </c>
       <c r="C16">
-        <v>0.1573881581040837</v>
+        <v>0.07235933195445909</v>
       </c>
       <c r="D16">
-        <v>0.303915261828962</v>
+        <v>0.1080568732274116</v>
       </c>
       <c r="E16">
-        <v>0.5225232673026881</v>
+        <v>0.2133931246938729</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4947508975151322</v>
+        <v>0.569211785381782</v>
       </c>
       <c r="H16">
-        <v>0.345820569565106</v>
+        <v>0.6814344804813999</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.28709195132376</v>
+        <v>0.3906799519434401</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9051647282176631</v>
+        <v>0.3029028405989536</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.722833925134552</v>
+        <v>2.47706751526303</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.218307770839345</v>
+        <v>0.3902831869671104</v>
       </c>
       <c r="C17">
-        <v>0.1531229220774009</v>
+        <v>0.07090972461583078</v>
       </c>
       <c r="D17">
-        <v>0.2908274969730797</v>
+        <v>0.1044623524562382</v>
       </c>
       <c r="E17">
-        <v>0.4995618234123498</v>
+        <v>0.2078350111070932</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4829472023533299</v>
+        <v>0.5681139611133403</v>
       </c>
       <c r="H17">
-        <v>0.343024028073657</v>
+        <v>0.6824744993305814</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.235876764332659</v>
+        <v>0.3749363637939496</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.865717989662997</v>
+        <v>0.2921378148903884</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.691788913949495</v>
+        <v>2.476808136545941</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.188160183756679</v>
+        <v>0.3812584019926533</v>
       </c>
       <c r="C18">
-        <v>0.1506716238712755</v>
+        <v>0.07007443112082967</v>
       </c>
       <c r="D18">
-        <v>0.2833291275518377</v>
+        <v>0.1023982652047266</v>
       </c>
       <c r="E18">
-        <v>0.486459327468836</v>
+        <v>0.2046508803680638</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4763060105791936</v>
+        <v>0.5675224797436158</v>
       </c>
       <c r="H18">
-        <v>0.3414970976779585</v>
+        <v>0.6831041857654014</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.206455066902294</v>
+        <v>0.3658740935098592</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8431233295948886</v>
+        <v>0.2859529423762268</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.674416187886209</v>
+        <v>2.476808631985847</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.17796040131185</v>
+        <v>0.3782025221682659</v>
       </c>
       <c r="C19">
-        <v>0.1498419603471319</v>
+        <v>0.06979135596023411</v>
       </c>
       <c r="D19">
-        <v>0.2807951648466656</v>
+        <v>0.1016999830986407</v>
       </c>
       <c r="E19">
-        <v>0.482040302611928</v>
+        <v>0.2035749707143992</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4740822010505639</v>
+        <v>0.5673290717667783</v>
       </c>
       <c r="H19">
-        <v>0.340993834236059</v>
+        <v>0.6833227959729697</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.19649912043505</v>
+        <v>0.3628045804751139</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8354886329535347</v>
+        <v>0.2838600327601526</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.668615203062899</v>
+        <v>2.476834496110001</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.223891167703101</v>
+        <v>0.3919533534053414</v>
       </c>
       <c r="C20">
-        <v>0.1535767540894</v>
+        <v>0.07106419523010743</v>
       </c>
       <c r="D20">
-        <v>0.2922176276741766</v>
+        <v>0.1048446450838583</v>
       </c>
       <c r="E20">
-        <v>0.5019951530304638</v>
+        <v>0.2084253605403319</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4841882589807653</v>
+        <v>0.5682266895826871</v>
       </c>
       <c r="H20">
-        <v>0.3433132158038603</v>
+        <v>0.6823605278944171</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.241324886217228</v>
+        <v>0.3766130207957019</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8699072625440181</v>
+        <v>0.2932830574727703</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.695043201991098</v>
+        <v>2.476820253375308</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.378814909450142</v>
+        <v>0.4381353847454363</v>
       </c>
       <c r="C21">
-        <v>0.1661508980232043</v>
+        <v>0.07532251495644005</v>
       </c>
       <c r="D21">
-        <v>0.3309607010926356</v>
+        <v>0.1154506730330382</v>
       </c>
       <c r="E21">
-        <v>0.5703379088236886</v>
+        <v>0.2248748771986371</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5199595849709766</v>
+        <v>0.5717203731875031</v>
       </c>
       <c r="H21">
-        <v>0.3521019710803728</v>
+        <v>0.6795037455564312</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.392395845567989</v>
+        <v>0.4229231295781517</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9867257070874516</v>
+        <v>0.3250254454734502</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.789762230430483</v>
+        <v>2.478561664882733</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.480600684428822</v>
+        <v>0.4683016007395224</v>
       </c>
       <c r="C22">
-        <v>0.1743937339627877</v>
+        <v>0.07809171772451862</v>
       </c>
       <c r="D22">
-        <v>0.3565872638910008</v>
+        <v>0.122412290902119</v>
       </c>
       <c r="E22">
-        <v>0.6160907126212294</v>
+        <v>0.235740771119751</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5448056048131633</v>
+        <v>0.5743607235752535</v>
       </c>
       <c r="H22">
-        <v>0.3586386123195098</v>
+        <v>0.6779171601954772</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.491552686540558</v>
+        <v>0.4531242514794087</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.064074692357153</v>
+        <v>0.3458323924471003</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.856428797066172</v>
+        <v>2.481035340408681</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.426221146705586</v>
+        <v>0.4522029751958883</v>
       </c>
       <c r="C23">
-        <v>0.1699917145490843</v>
+        <v>0.07661502624837624</v>
       </c>
       <c r="D23">
-        <v>0.3428796758145012</v>
+        <v>0.1186940117456032</v>
       </c>
       <c r="E23">
-        <v>0.5915640729490264</v>
+        <v>0.2299308196035525</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5314029627688939</v>
+        <v>0.5729187928541677</v>
       </c>
       <c r="H23">
-        <v>0.3550739883999654</v>
+        <v>0.6787382847317929</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.438586836897514</v>
+        <v>0.4370114608734355</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.022692114686961</v>
+        <v>0.3347217024130984</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.820388713734815</v>
+        <v>2.479592761118852</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.221366810037352</v>
+        <v>0.3911982884957013</v>
       </c>
       <c r="C24">
-        <v>0.1533715740926027</v>
+        <v>0.07099436496453393</v>
       </c>
       <c r="D24">
-        <v>0.2915890691994178</v>
+        <v>0.1046718029525096</v>
       </c>
       <c r="E24">
-        <v>0.5008947400873183</v>
+        <v>0.2081584283755831</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4836267275323962</v>
+        <v>0.5681756014764687</v>
       </c>
       <c r="H24">
-        <v>0.3431822229527626</v>
+        <v>0.6824119554304247</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.238861721045367</v>
+        <v>0.3758550386194486</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8680130330325113</v>
+        <v>0.2927652805849448</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.693570462325454</v>
+        <v>2.476814309334571</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.002155555806496</v>
+        <v>0.3253393524736339</v>
       </c>
       <c r="C25">
-        <v>0.135515073763699</v>
+        <v>0.06487373216842229</v>
       </c>
       <c r="D25">
-        <v>0.2373643109113175</v>
+        <v>0.0896760803344705</v>
       </c>
       <c r="E25">
-        <v>0.4070053553114263</v>
+        <v>0.1851597280026809</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4376758803487206</v>
+        <v>0.5645862085312956</v>
       </c>
       <c r="H25">
-        <v>0.3334407001582065</v>
+        <v>0.6875787031234495</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.02474812874209</v>
+        <v>0.3096228981082163</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7046828780719139</v>
+        <v>0.2477714741956163</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.575037531286199</v>
+        <v>2.479538280106482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_87/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2768050460063307</v>
+        <v>0.8416869707074568</v>
       </c>
       <c r="C2">
-        <v>0.06031819443467157</v>
+        <v>0.1223898918295987</v>
       </c>
       <c r="D2">
-        <v>0.07874435808558644</v>
+        <v>0.1981609000354325</v>
       </c>
       <c r="E2">
-        <v>0.1686307853009623</v>
+        <v>0.3404736098834178</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5632483727616489</v>
+        <v>0.4079136084223904</v>
       </c>
       <c r="H2">
-        <v>0.6924185566122532</v>
+        <v>0.3285995564907722</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2606336659522697</v>
+        <v>0.8677024939945284</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2148598588092483</v>
+        <v>0.586638290215447</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.48644661295495</v>
+        <v>1.501242077482459</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2438897404451836</v>
+        <v>0.7332608936200415</v>
       </c>
       <c r="C3">
-        <v>0.05720082609634858</v>
+        <v>0.1134918309937802</v>
       </c>
       <c r="D3">
-        <v>0.07140343440914876</v>
+        <v>0.171940581347954</v>
       </c>
       <c r="E3">
-        <v>0.1576750876642521</v>
+        <v>0.2966635093767493</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5631517917375035</v>
+        <v>0.3899516247232953</v>
       </c>
       <c r="H3">
-        <v>0.6963446507366129</v>
+        <v>0.3266270625602914</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2272977185796634</v>
+        <v>0.7614105352914606</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1926867908534149</v>
+        <v>0.507657387528532</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.49417829921704</v>
+        <v>1.458630237578831</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2236698707330902</v>
+        <v>0.6667698314969357</v>
       </c>
       <c r="C4">
-        <v>0.05527214612481401</v>
+        <v>0.1080219243909966</v>
       </c>
       <c r="D4">
-        <v>0.06692929383598312</v>
+        <v>0.1559818596420826</v>
       </c>
       <c r="E4">
-        <v>0.1510676827681579</v>
+        <v>0.2702920970632121</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5634908400214229</v>
+        <v>0.3799110650137933</v>
       </c>
       <c r="H4">
-        <v>0.6990740303626097</v>
+        <v>0.3260168167082469</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2067641700347025</v>
+        <v>0.6961446671762843</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1791362881069887</v>
+        <v>0.459556538773441</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.50042740946779</v>
+        <v>1.435809003605286</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2154280791049814</v>
+        <v>0.6396847338700695</v>
       </c>
       <c r="C5">
-        <v>0.05448256808847418</v>
+        <v>0.1057906215734619</v>
       </c>
       <c r="D5">
-        <v>0.06511441704545007</v>
+        <v>0.1495096554997701</v>
       </c>
       <c r="E5">
-        <v>0.1484049154837024</v>
+        <v>0.2596642074771438</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5637290229708682</v>
+        <v>0.3760538365872748</v>
       </c>
       <c r="H5">
-        <v>0.7002664422876848</v>
+        <v>0.3259130090488327</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1983806189188044</v>
+        <v>0.6695383373310193</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1736303727481143</v>
+        <v>0.4400392008154626</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.503351329372492</v>
+        <v>1.427306747142325</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2140594256084682</v>
+        <v>0.6351876214037588</v>
       </c>
       <c r="C6">
-        <v>0.05435124168483441</v>
+        <v>0.1054199602672128</v>
       </c>
       <c r="D6">
-        <v>0.06481356434686347</v>
+        <v>0.1484367089077807</v>
       </c>
       <c r="E6">
-        <v>0.1479645583763229</v>
+        <v>0.2579062247036674</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5637746095106735</v>
+        <v>0.3754271041912389</v>
       </c>
       <c r="H6">
-        <v>0.7004692838213629</v>
+        <v>0.325904346006979</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1969875848294578</v>
+        <v>0.6651195111417678</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1727170866715682</v>
+        <v>0.4368030260357187</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.503859627017704</v>
+        <v>1.425941912223891</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2235587267143728</v>
+        <v>0.6664045228740179</v>
       </c>
       <c r="C7">
-        <v>0.05526151221494047</v>
+        <v>0.1079918422783805</v>
       </c>
       <c r="D7">
-        <v>0.06690478385058896</v>
+        <v>0.1558944527766215</v>
       </c>
       <c r="E7">
-        <v>0.1510316513858427</v>
+        <v>0.2701483031948513</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5634936474712902</v>
+        <v>0.3798581141906539</v>
       </c>
       <c r="H7">
-        <v>0.6990897870294006</v>
+        <v>0.3260148381242018</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2066511706122895</v>
+        <v>0.6957858972465942</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1790619685639214</v>
+        <v>0.4592929994298842</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.500465314960337</v>
+        <v>1.43569116495965</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2654581103816724</v>
+        <v>0.8042780018699318</v>
       </c>
       <c r="C8">
-        <v>0.05924638379615033</v>
+        <v>0.1193227746297936</v>
       </c>
       <c r="D8">
-        <v>0.07620632291454399</v>
+        <v>0.1890882990661851</v>
       </c>
       <c r="E8">
-        <v>0.1648283296542132</v>
+        <v>0.3252494818835601</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5631323021978289</v>
+        <v>0.4015064997969517</v>
       </c>
       <c r="H8">
-        <v>0.6937061287907369</v>
+        <v>0.3277908810502765</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2491531912021401</v>
+        <v>0.8310476003375982</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2072013069083951</v>
+        <v>0.5593147136147181</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.488800616244646</v>
+        <v>1.485829197156505</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3475310849370032</v>
+        <v>1.075815426939755</v>
       </c>
       <c r="C9">
-        <v>0.06694314097400422</v>
+        <v>0.1415241507401959</v>
       </c>
       <c r="D9">
-        <v>0.09471028873775822</v>
+        <v>0.2555035465176303</v>
       </c>
       <c r="E9">
-        <v>0.1928431101611139</v>
+        <v>0.4381801354623462</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5655920439862285</v>
+        <v>0.4524755923605852</v>
       </c>
       <c r="H9">
-        <v>0.6856774116838125</v>
+        <v>0.33633947832773</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3319683319628552</v>
+        <v>1.096744998068743</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2628934251986763</v>
+        <v>0.759305713132413</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.477857979900108</v>
+        <v>1.612730039811822</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4077610223201873</v>
+        <v>1.276802069778654</v>
       </c>
       <c r="C10">
-        <v>0.07252453541718751</v>
+        <v>0.1578751402875298</v>
       </c>
       <c r="D10">
-        <v>0.1084674912474952</v>
+        <v>0.3054127914186751</v>
       </c>
       <c r="E10">
-        <v>0.214029077322536</v>
+        <v>0.5251579779270585</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.569342473338736</v>
+        <v>0.4961183235466819</v>
       </c>
       <c r="H10">
-        <v>0.6813200748703281</v>
+        <v>0.3461509442371522</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3924754491919771</v>
+        <v>1.29294116619306</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3041321384505693</v>
+        <v>0.9096791556161463</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.477117403796029</v>
+        <v>1.726443393703988</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4351437615016494</v>
+        <v>1.368746753278344</v>
       </c>
       <c r="C11">
-        <v>0.07504738402225541</v>
+        <v>0.1653347822179256</v>
       </c>
       <c r="D11">
-        <v>0.1147616677293541</v>
+        <v>0.3284331015496207</v>
       </c>
       <c r="E11">
-        <v>0.2238022839011649</v>
+        <v>0.5658486251429338</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5714731970388414</v>
+        <v>0.517558557631304</v>
       </c>
       <c r="H11">
-        <v>0.6796725134369836</v>
+        <v>0.3514873489643406</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4199260514892842</v>
+        <v>1.382583671801825</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3229650030318254</v>
+        <v>0.9791003403412901</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.478371022581854</v>
+        <v>1.783354420063091</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4455102310436416</v>
+        <v>1.403654402393528</v>
       </c>
       <c r="C12">
-        <v>0.07600035889831247</v>
+        <v>0.1681637611202405</v>
       </c>
       <c r="D12">
-        <v>0.1171502789751315</v>
+        <v>0.3372022769574698</v>
       </c>
       <c r="E12">
-        <v>0.2275229270960679</v>
+        <v>0.5814416871269543</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5723412943671633</v>
+        <v>0.5259273260273289</v>
       </c>
       <c r="H12">
-        <v>0.6790967385162787</v>
+        <v>0.3536432669124991</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4303098469221993</v>
+        <v>1.416600613908344</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3301071429053977</v>
+        <v>1.005558299773426</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.479074843028712</v>
+        <v>1.80571651355379</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4432777572003772</v>
+        <v>1.396132133162865</v>
       </c>
       <c r="C13">
-        <v>0.07579522504454417</v>
+        <v>0.1675542859396302</v>
       </c>
       <c r="D13">
-        <v>0.1166356205002899</v>
+        <v>0.3353112638173741</v>
       </c>
       <c r="E13">
-        <v>0.2267207381240581</v>
+        <v>0.5780748569435588</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5721516076737743</v>
+        <v>0.5241134891502242</v>
       </c>
       <c r="H13">
-        <v>0.6792186016949984</v>
+        <v>0.3531727805189604</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4280740139880947</v>
+        <v>1.409271036404448</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3285684860584936</v>
+        <v>0.9998521611359834</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.478913067144191</v>
+        <v>1.800863257126963</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4359966754980462</v>
+        <v>1.371616721850899</v>
       </c>
       <c r="C14">
-        <v>0.07512583368516346</v>
+        <v>0.1655674337995805</v>
       </c>
       <c r="D14">
-        <v>0.114958077294375</v>
+        <v>0.3291534687898263</v>
       </c>
       <c r="E14">
-        <v>0.224107986409102</v>
+        <v>0.5671276425459126</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5715433876092106</v>
+        <v>0.5182419247453538</v>
       </c>
       <c r="H14">
-        <v>0.6796241796515119</v>
+        <v>0.351661951719592</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4207805586873405</v>
+        <v>1.385380747943969</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3235523797612103</v>
+        <v>0.9812735097598946</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.478424332542914</v>
+        <v>1.785177511009067</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4315364272563329</v>
+        <v>1.356612571733933</v>
       </c>
       <c r="C15">
-        <v>0.0747155016209291</v>
+        <v>0.1643510069408052</v>
       </c>
       <c r="D15">
-        <v>0.1139312026224815</v>
+        <v>0.3253885959462508</v>
       </c>
       <c r="E15">
-        <v>0.2225101787231409</v>
+        <v>0.560446881572993</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5711788155439734</v>
+        <v>0.5146786256434552</v>
       </c>
       <c r="H15">
-        <v>0.679878874733248</v>
+        <v>0.3507544214779159</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4163116409533529</v>
+        <v>1.370757001448226</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3204812434373139</v>
+        <v>0.9699163800329273</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.478154815870397</v>
+        <v>1.775677214297303</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4059711317275685</v>
+        <v>1.270804981036065</v>
       </c>
       <c r="C16">
-        <v>0.07235933195445909</v>
+        <v>0.1573881581039984</v>
       </c>
       <c r="D16">
-        <v>0.1080568732274116</v>
+        <v>0.303915261828962</v>
       </c>
       <c r="E16">
-        <v>0.2133931246938729</v>
+        <v>0.5225232673026952</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.569211785381782</v>
+        <v>0.4947508975150612</v>
       </c>
       <c r="H16">
-        <v>0.6814344804813999</v>
+        <v>0.345820569565106</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3906799519434401</v>
+        <v>1.28709195132376</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3029028405989536</v>
+        <v>0.9051647282176631</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.47706751526303</v>
+        <v>1.722833925134552</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3902831869671104</v>
+        <v>1.218307770839317</v>
       </c>
       <c r="C17">
-        <v>0.07090972461583078</v>
+        <v>0.1531229220776424</v>
       </c>
       <c r="D17">
-        <v>0.1044623524562382</v>
+        <v>0.2908274969730229</v>
       </c>
       <c r="E17">
-        <v>0.2078350111070932</v>
+        <v>0.4995618234123143</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5681139611133403</v>
+        <v>0.4829472023533867</v>
       </c>
       <c r="H17">
-        <v>0.6824744993305814</v>
+        <v>0.3430240280736427</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3749363637939496</v>
+        <v>1.23587676433263</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2921378148903884</v>
+        <v>0.8657179896629827</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.476808136545941</v>
+        <v>1.691788913949523</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3812584019926533</v>
+        <v>1.188160183756679</v>
       </c>
       <c r="C18">
-        <v>0.07007443112082967</v>
+        <v>0.150671623871375</v>
       </c>
       <c r="D18">
-        <v>0.1023982652047266</v>
+        <v>0.283329127551724</v>
       </c>
       <c r="E18">
-        <v>0.2046508803680638</v>
+        <v>0.4864593274688289</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5675224797436158</v>
+        <v>0.476306010579151</v>
       </c>
       <c r="H18">
-        <v>0.6831041857654014</v>
+        <v>0.3414970976779728</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3658740935098592</v>
+        <v>1.206455066902407</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2859529423762268</v>
+        <v>0.8431233295948957</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.476808631985847</v>
+        <v>1.67441618788618</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3782025221682659</v>
+        <v>1.177960401311879</v>
       </c>
       <c r="C19">
-        <v>0.06979135596023411</v>
+        <v>0.1498419603470325</v>
       </c>
       <c r="D19">
-        <v>0.1016999830986407</v>
+        <v>0.2807951648466229</v>
       </c>
       <c r="E19">
-        <v>0.2035749707143992</v>
+        <v>0.4820403026119493</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5673290717667783</v>
+        <v>0.4740822010505639</v>
       </c>
       <c r="H19">
-        <v>0.6833227959729697</v>
+        <v>0.3409938342359595</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3628045804751139</v>
+        <v>1.196499120435078</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2838600327601526</v>
+        <v>0.8354886329535276</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.476834496110001</v>
+        <v>1.668615203062927</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3919533534053414</v>
+        <v>1.223891167702988</v>
       </c>
       <c r="C20">
-        <v>0.07106419523010743</v>
+        <v>0.1535767540893289</v>
       </c>
       <c r="D20">
-        <v>0.1048446450838583</v>
+        <v>0.2922176276740629</v>
       </c>
       <c r="E20">
-        <v>0.2084253605403319</v>
+        <v>0.5019951530304496</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5682266895826871</v>
+        <v>0.4841882589807796</v>
       </c>
       <c r="H20">
-        <v>0.6823605278944171</v>
+        <v>0.3433132158038745</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3766130207957019</v>
+        <v>1.241324886217114</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2932830574727703</v>
+        <v>0.869907262544011</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.476820253375308</v>
+        <v>1.695043201991069</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4381353847454363</v>
+        <v>1.378814909450142</v>
       </c>
       <c r="C21">
-        <v>0.07532251495644005</v>
+        <v>0.1661508980234458</v>
       </c>
       <c r="D21">
-        <v>0.1154506730330382</v>
+        <v>0.3309607010926356</v>
       </c>
       <c r="E21">
-        <v>0.2248748771986371</v>
+        <v>0.5703379088236744</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5717203731875031</v>
+        <v>0.519959584971005</v>
       </c>
       <c r="H21">
-        <v>0.6795037455564312</v>
+        <v>0.3521019710803728</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4229231295781517</v>
+        <v>1.392395845568046</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3250254454734502</v>
+        <v>0.9867257070874587</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.478561664882733</v>
+        <v>1.78976223043054</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4683016007395224</v>
+        <v>1.480600684428993</v>
       </c>
       <c r="C22">
-        <v>0.07809171772451862</v>
+        <v>0.1743937339632282</v>
       </c>
       <c r="D22">
-        <v>0.122412290902119</v>
+        <v>0.3565872638908729</v>
       </c>
       <c r="E22">
-        <v>0.235740771119751</v>
+        <v>0.6160907126212294</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5743607235752535</v>
+        <v>0.544805604813078</v>
       </c>
       <c r="H22">
-        <v>0.6779171601954772</v>
+        <v>0.3586386123194956</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4531242514794087</v>
+        <v>1.491552686540587</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3458323924471003</v>
+        <v>1.064074692357138</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.481035340408681</v>
+        <v>1.856428797066144</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4522029751958883</v>
+        <v>1.426221146705529</v>
       </c>
       <c r="C23">
-        <v>0.07661502624837624</v>
+        <v>0.1699917145491838</v>
       </c>
       <c r="D23">
-        <v>0.1186940117456032</v>
+        <v>0.3428796758147712</v>
       </c>
       <c r="E23">
-        <v>0.2299308196035525</v>
+        <v>0.5915640729490264</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5729187928541677</v>
+        <v>0.5314029627688655</v>
       </c>
       <c r="H23">
-        <v>0.6787382847317929</v>
+        <v>0.3550739884000649</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4370114608734355</v>
+        <v>1.438586836897542</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3347217024130984</v>
+        <v>1.022692114686961</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.479592761118852</v>
+        <v>1.820388713734815</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3911982884957013</v>
+        <v>1.221366810037068</v>
       </c>
       <c r="C24">
-        <v>0.07099436496453393</v>
+        <v>0.1533715740922617</v>
       </c>
       <c r="D24">
-        <v>0.1046718029525096</v>
+        <v>0.2915890691995173</v>
       </c>
       <c r="E24">
-        <v>0.2081584283755831</v>
+        <v>0.5008947400873254</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5681756014764687</v>
+        <v>0.4836267275324104</v>
       </c>
       <c r="H24">
-        <v>0.6824119554304247</v>
+        <v>0.3431822229526489</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3758550386194486</v>
+        <v>1.238861721045538</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2927652805849448</v>
+        <v>0.8680130330325113</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.476814309334571</v>
+        <v>1.693570462325454</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3253393524736339</v>
+        <v>1.002155555806354</v>
       </c>
       <c r="C25">
-        <v>0.06487373216842229</v>
+        <v>0.1355150737635569</v>
       </c>
       <c r="D25">
-        <v>0.0896760803344705</v>
+        <v>0.2373643109111896</v>
       </c>
       <c r="E25">
-        <v>0.1851597280026809</v>
+        <v>0.4070053553114192</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5645862085312956</v>
+        <v>0.4376758803487917</v>
       </c>
       <c r="H25">
-        <v>0.6875787031234495</v>
+        <v>0.3334407001582207</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3096228981082163</v>
+        <v>1.02474812874209</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2477714741956163</v>
+        <v>0.7046828780719494</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.479538280106482</v>
+        <v>1.575037531286199</v>
       </c>
     </row>
   </sheetData>
